--- a/521/data/peaks.xlsx
+++ b/521/data/peaks.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="15315" windowHeight="6990" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="15315" windowHeight="6990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="si_peaks" sheetId="1" r:id="rId1"/>
     <sheet name="ge_peaks" sheetId="2" r:id="rId2"/>
+    <sheet name="erde_peaks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t>n</t>
   </si>
@@ -613,7 +614,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -710,11 +710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322644224"/>
-        <c:axId val="322658304"/>
+        <c:axId val="225120256"/>
+        <c:axId val="225121792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322644224"/>
+        <c:axId val="225120256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,12 +724,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322658304"/>
+        <c:crossAx val="225121792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322658304"/>
+        <c:axId val="225121792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,14 +740,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322644224"/>
+        <c:crossAx val="225120256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -904,11 +903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280669568"/>
-        <c:axId val="280671360"/>
+        <c:axId val="161032832"/>
+        <c:axId val="161055104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280669568"/>
+        <c:axId val="161032832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,12 +917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280671360"/>
+        <c:crossAx val="161055104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280671360"/>
+        <c:axId val="161055104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280669568"/>
+        <c:crossAx val="161032832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1590,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,4 +2044,237 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>19091.599999999999</v>
+      </c>
+      <c r="D5">
+        <v>3229.89</v>
+      </c>
+      <c r="E5">
+        <v>7351.51</v>
+      </c>
+      <c r="F5">
+        <v>0.81850100000000003</v>
+      </c>
+      <c r="G5">
+        <v>5.6313300000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.730993</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:J14" si="0">G5/1.1775</f>
+        <v>4.7824458598726114</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.62080084925690027</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>6257.66</v>
+      </c>
+      <c r="D6">
+        <v>2251.42</v>
+      </c>
+      <c r="E6">
+        <v>3053.85</v>
+      </c>
+      <c r="F6">
+        <v>1.17269</v>
+      </c>
+      <c r="G6">
+        <v>3.4003700000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.22176</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2.8877876857749469</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.037588110403397</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4554.8100000000004</v>
+      </c>
+      <c r="D7">
+        <v>2047.74</v>
+      </c>
+      <c r="E7">
+        <v>2922.5</v>
+      </c>
+      <c r="F7">
+        <v>1.52372</v>
+      </c>
+      <c r="G7">
+        <v>3.5</v>
+      </c>
+      <c r="H7">
+        <v>1.6348800000000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.9723991507431</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.3884331210191083</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6142.21</v>
+      </c>
+      <c r="D8">
+        <v>2661.42</v>
+      </c>
+      <c r="E8">
+        <v>1755.44</v>
+      </c>
+      <c r="F8">
+        <v>1.20123</v>
+      </c>
+      <c r="G8">
+        <v>2.8330799999999998</v>
+      </c>
+      <c r="H8">
+        <v>1.30704</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2.4060127388535029</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.1100127388535033</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>8227.44</v>
+      </c>
+      <c r="D9">
+        <v>3455.68</v>
+      </c>
+      <c r="E9">
+        <v>1184.01</v>
+      </c>
+      <c r="F9">
+        <v>1.0016099999999999</v>
+      </c>
+      <c r="G9">
+        <v>2.4234300000000002</v>
+      </c>
+      <c r="H9">
+        <v>1.1081300000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2.0581146496815288</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.94108704883227179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>4564.2299999999996</v>
+      </c>
+      <c r="D10">
+        <v>4155.3</v>
+      </c>
+      <c r="E10">
+        <v>356.66500000000002</v>
+      </c>
+      <c r="F10">
+        <v>1.7427999999999999</v>
+      </c>
+      <c r="G10">
+        <v>1.9429099999999999</v>
+      </c>
+      <c r="H10">
+        <v>2.0097499999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.6500297239915074</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.7067940552016985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/521/data/peaks.xlsx
+++ b/521/data/peaks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="15315" windowHeight="6990" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="15315" windowHeight="6990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="si_peaks" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
   <si>
     <t>n</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>ds</t>
+  </si>
+  <si>
+    <t>fwhm/kev</t>
+  </si>
+  <si>
+    <t>dfwhm/kev</t>
+  </si>
+  <si>
+    <t>Npeak</t>
+  </si>
+  <si>
+    <t>dNpeak</t>
+  </si>
+  <si>
+    <t>PtT</t>
+  </si>
+  <si>
+    <t>dPtT</t>
   </si>
 </sst>
 </file>
@@ -614,6 +632,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -710,11 +729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225120256"/>
-        <c:axId val="225121792"/>
+        <c:axId val="211624704"/>
+        <c:axId val="211626240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225120256"/>
+        <c:axId val="211624704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,12 +743,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225121792"/>
+        <c:crossAx val="211626240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225121792"/>
+        <c:axId val="211626240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,13 +759,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225120256"/>
+        <c:crossAx val="211624704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -903,11 +923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161032832"/>
-        <c:axId val="161055104"/>
+        <c:axId val="211697024"/>
+        <c:axId val="211719296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161032832"/>
+        <c:axId val="211697024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,12 +937,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161055104"/>
+        <c:crossAx val="211719296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161055104"/>
+        <c:axId val="211719296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161032832"/>
+        <c:crossAx val="211697024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -995,15 +1015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1314,15 +1334,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:M10"/>
+  <dimension ref="C1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" activeCellId="1" sqref="E4:E10 H4:H10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>1.7658199999999999</v>
+      </c>
+      <c r="R1">
+        <f>R6+R7</f>
+        <v>0.19821796116829721</v>
+      </c>
+      <c r="S1">
+        <f>SQRT(S6^2+S7^2)</f>
+        <v>6.8141644999409542E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>8.7590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1356,8 +1400,26 @@
       <c r="M4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -1393,8 +1455,32 @@
         <f>K5/1.1775</f>
         <v>0.7647651804670913</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>2*J5/N$1</f>
+        <v>57.19722281999298</v>
+      </c>
+      <c r="O5">
+        <f>N5*SQRT((K5/J5)^2+(N$2/N$1)^2)</f>
+        <v>3.0149154857724136</v>
+      </c>
+      <c r="P5">
+        <f>SQRT(2*PI())*F5*L5</f>
+        <v>4061569.0901177139</v>
+      </c>
+      <c r="Q5">
+        <f>P5*SQRT((M5/L5)^2+(G5/F5)^2)</f>
+        <v>123706.45375501597</v>
+      </c>
+      <c r="R5">
+        <f>P5/17152004</f>
+        <v>0.23679851579545538</v>
+      </c>
+      <c r="S5">
+        <f>R5*SQRT((Q5/P5)^2+1/17152004)</f>
+        <v>7.2125881626142283E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -1430,8 +1516,32 @@
         <f t="shared" ref="M6:M10" si="1">K6/1.1775</f>
         <v>1.767099787685775</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="2">2*J6/N$1</f>
+        <v>81.548515703752372</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O10" si="3">N6*SQRT((K6/J6)^2+(N$2/N$1)^2)</f>
+        <v>4.6815078914358335</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P10" si="4">SQRT(2*PI())*F6*L6</f>
+        <v>396360.19678139722</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q10" si="5">P6*SQRT((M6/L6)^2+(G6/F6)^2)</f>
+        <v>17958.030597191002</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R10" si="6">P6/3482320</f>
+        <v>0.11382072778532622</v>
+      </c>
+      <c r="S6">
+        <f>R6*SQRT((Q6/P6)^2+1/3482320)</f>
+        <v>5.1572763700217534E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -1467,8 +1577,32 @@
         <f t="shared" si="1"/>
         <v>1.7056305732484076</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>67.957096419793643</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>4.0665954939493449</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>293898.17375418759</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>15508.367689554787</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>8.4397233382971004E-2</v>
+      </c>
+      <c r="S7">
+        <f>R7*SQRT((Q7/P7)^2+1/3482320)</f>
+        <v>4.4536881654950655E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -1504,8 +1638,24 @@
         <f t="shared" si="1"/>
         <v>0.82421401273885353</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>69.08971469345687</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>3.5990293783033604</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>20841735.985371388</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>529746.31031532027</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -1541,8 +1691,24 @@
         <f t="shared" si="1"/>
         <v>1.7132823779193205</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>55.498295409498141</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>3.5776084337068403</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>5580574.1163016278</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>328820.47456788179</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -1577,6 +1743,22 @@
       <c r="M10">
         <f t="shared" si="1"/>
         <v>4.8658004246284499</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>220.86056336432932</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>12.733063027778199</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>8841851.8375200499</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>386864.29621616617</v>
       </c>
     </row>
   </sheetData>
@@ -1587,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:M15"/>
+  <dimension ref="C1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:K4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1780,31 @@
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>5.0249100000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="R2">
+        <f>R6+R7</f>
+        <v>0.1026348904520807</v>
+      </c>
+      <c r="S2">
+        <f>SQRT(S6^2+S7^2)</f>
+        <v>4.0845829149463199E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1632,8 +1838,26 @@
       <c r="M4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -1669,8 +1893,32 @@
         <f>K5/1.1775</f>
         <v>5.4098513800424623E-2</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>2*J5/M$1</f>
+        <v>1.676658885432774</v>
+      </c>
+      <c r="O5">
+        <f>N5*SQRT((K5/J5)^2+(M$2/M$1)^2)</f>
+        <v>2.5393993149323165E-2</v>
+      </c>
+      <c r="P5">
+        <f>SQRT(2*PI())*F5*L5</f>
+        <v>288486.69349446963</v>
+      </c>
+      <c r="Q5">
+        <f>P5*SQRT((M5/L5)^2+(G5/F5)^2)</f>
+        <v>8362.5848974648979</v>
+      </c>
+      <c r="R5">
+        <f>P5/1762931</f>
+        <v>0.16364037701672365</v>
+      </c>
+      <c r="S5">
+        <f>R5*SQRT((Q5/P5)^2+1/1762931)</f>
+        <v>4.7451698323901104E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -1684,19 +1932,19 @@
         <v>1595.51</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>77.070599999999999</v>
       </c>
       <c r="H6">
         <v>5899.82</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.16979</v>
       </c>
       <c r="J6">
         <v>5.18011</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.15427299999999999</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:M15" si="0">J6/1.1775</f>
@@ -1704,10 +1952,34 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+        <v>0.13101740976645435</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N15" si="1">2*J6/M$1</f>
+        <v>2.0617722506472753</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O15" si="2">N6*SQRT((K6/J6)^2+(M$2/M$1)^2)</f>
+        <v>6.1428220583726101E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P15" si="3">SQRT(2*PI())*F6*L6</f>
+        <v>17594.119241577355</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q15" si="4">P6*SQRT((M6/L6)^2+(G6/F6)^2)</f>
+        <v>998.425221742948</v>
+      </c>
+      <c r="R6">
+        <f>P6/304614</f>
+        <v>5.7758734797407063E-2</v>
+      </c>
+      <c r="S6">
+        <f>R6*SQRT((Q6/P6)^2+1/304614)</f>
+        <v>3.2793436958329599E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -1743,8 +2015,32 @@
         <f t="shared" si="0"/>
         <v>0.12124076433121019</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>1.7910768551078526</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>5.6841648711010349E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>13669.905278592754</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>741.35258486036025</v>
+      </c>
+      <c r="R7">
+        <f>P7/304614</f>
+        <v>4.4876155654673636E-2</v>
+      </c>
+      <c r="S7">
+        <f>R7*SQRT((Q7/P7)^2+1/304614)</f>
+        <v>2.4351021567219724E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -1780,8 +2076,24 @@
         <f t="shared" si="0"/>
         <v>0.48178683651804671</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1.5643543864467224</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0.22580058485172347</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>472018.02861251484</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>120861.97766871299</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -1817,8 +2129,24 @@
         <f t="shared" si="0"/>
         <v>1.2634479830148622</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>1.6148149917112942</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0.59213557473711731</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>94517.079486370742</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>57942.753599573625</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -1854,8 +2182,24 @@
         <f t="shared" si="0"/>
         <v>0.74221825902335459</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1.7307175650907178</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0.34785490407739228</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>236493.34206887573</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>84648.592568408319</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>7</v>
       </c>
@@ -1891,8 +2235,24 @@
         <f t="shared" si="0"/>
         <v>2.0712016985138004</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.9900853945642807</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0.97070144237114253</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>49935.547703391043</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>40771.115522259213</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>8</v>
       </c>
@@ -1928,8 +2288,24 @@
         <f t="shared" si="0"/>
         <v>2.2367813163481953</v>
       </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>2.189093934020709</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>1.0483030092330534</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>47488.631465365899</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>38631.163466572019</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>9</v>
       </c>
@@ -1965,8 +2341,24 @@
         <f t="shared" si="0"/>
         <v>3.0325180467091295</v>
       </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>2.189093934020709</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>1.4212366197575839</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>29586.728726079793</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>31505.11394975369</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>10</v>
       </c>
@@ -2002,8 +2394,24 @@
         <f t="shared" si="0"/>
         <v>2.6791677282377919</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>2.189093934020709</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1.2556338139183463</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>36541.424754291664</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>34956.415669250724</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>11</v>
       </c>
@@ -2038,6 +2446,22 @@
       <c r="M15">
         <f t="shared" si="0"/>
         <v>2.3145732484076436</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>2.388102473477137</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>1.0847616207935453</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>46683.955891853788</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>36864.697668122943</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2111,7 +2535,7 @@
         <v>0.730993</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:J14" si="0">G5/1.1775</f>
+        <f t="shared" ref="I5:J10" si="0">G5/1.1775</f>
         <v>4.7824458598726114</v>
       </c>
       <c r="J5">

--- a/521/data/peaks.xlsx
+++ b/521/data/peaks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>n</t>
   </si>
@@ -76,6 +76,51 @@
   </si>
   <si>
     <t>dPtT</t>
+  </si>
+  <si>
+    <t>relint</t>
+  </si>
+  <si>
+    <t>drelint</t>
+  </si>
+  <si>
+    <t>relintreal</t>
+  </si>
+  <si>
+    <t>vrelint</t>
+  </si>
+  <si>
+    <t>dvrelint</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>bin/e</t>
+  </si>
+  <si>
+    <t>dbin/e</t>
+  </si>
+  <si>
+    <t>139xe</t>
+  </si>
+  <si>
+    <t>227ac</t>
+  </si>
+  <si>
+    <t>226ra</t>
+  </si>
+  <si>
+    <t>227ac, 227th</t>
+  </si>
+  <si>
+    <t>137cs</t>
+  </si>
+  <si>
+    <t>40k</t>
   </si>
 </sst>
 </file>
@@ -632,7 +677,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -729,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211624704"/>
-        <c:axId val="211626240"/>
+        <c:axId val="158522752"/>
+        <c:axId val="158524544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211624704"/>
+        <c:axId val="158522752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,12 +787,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211626240"/>
+        <c:crossAx val="158524544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211626240"/>
+        <c:axId val="158524544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,14 +803,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211624704"/>
+        <c:crossAx val="158522752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -923,11 +966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211697024"/>
-        <c:axId val="211719296"/>
+        <c:axId val="158583040"/>
+        <c:axId val="158605312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211697024"/>
+        <c:axId val="158583040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,12 +980,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211719296"/>
+        <c:crossAx val="158605312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211719296"/>
+        <c:axId val="158605312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211697024"/>
+        <c:crossAx val="158583040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1533,7 +1576,7 @@
         <v>17958.030597191002</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R10" si="6">P6/3482320</f>
+        <f t="shared" ref="R6:R7" si="6">P6/3482320</f>
         <v>0.11382072778532622</v>
       </c>
       <c r="S6">
@@ -1769,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:S15"/>
+  <dimension ref="C1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:S2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1823,7 @@
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:24" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1831,7 @@
         <v>5.0249100000000002</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>7</v>
       </c>
@@ -1804,7 +1847,7 @@
         <v>4.0845829149463199E-3</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1856,8 +1899,23 @@
       <c r="S4" t="s">
         <v>19</v>
       </c>
+      <c r="T4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -1918,7 +1976,7 @@
         <v>4.7451698323901104E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -1979,7 +2037,7 @@
         <v>3.2793436958329599E-3</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -2040,7 +2098,7 @@
         <v>2.4351021567219724E-3</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -2092,8 +2150,27 @@
         <f t="shared" si="4"/>
         <v>120861.97766871299</v>
       </c>
+      <c r="T8">
+        <f>F8/F$15*1000</f>
+        <v>15435.075239398086</v>
+      </c>
+      <c r="U8">
+        <f>T8*SQRT((G8/F8)^2+(G$15/F$15)^2)</f>
+        <v>10490.988673365249</v>
+      </c>
+      <c r="V8">
+        <v>1362</v>
+      </c>
+      <c r="W8">
+        <f>T8/V8</f>
+        <v>11.332654360791546</v>
+      </c>
+      <c r="X8">
+        <f>U8/V8</f>
+        <v>7.7026348556279363</v>
+      </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -2145,8 +2222,27 @@
         <f t="shared" si="4"/>
         <v>57942.753599573625</v>
       </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T15" si="5">F9/F$15*1000</f>
+        <v>2994.1450068399454</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:U15" si="6">T9*SQRT((G9/F9)^2+(G$15/F$15)^2)</f>
+        <v>2429.872628038127</v>
+      </c>
+      <c r="V9">
+        <v>359</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9:W15" si="7">T9/V9</f>
+        <v>8.3402367878550017</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9:X15" si="8">U9/V9</f>
+        <v>6.7684474318610777</v>
+      </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -2198,8 +2294,27 @@
         <f t="shared" si="4"/>
         <v>84648.592568408319</v>
       </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>6990.0136798905614</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>4967.1485332167686</v>
+      </c>
+      <c r="V10">
+        <v>1275</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="7"/>
+        <v>5.4823636705024015</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="8"/>
+        <v>3.8958027711504069</v>
+      </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>7</v>
       </c>
@@ -2251,8 +2366,27 @@
         <f t="shared" si="4"/>
         <v>40771.115522259213</v>
       </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>1283.5813953488371</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>1180.5845662604759</v>
+      </c>
+      <c r="V11">
+        <v>621.6</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="7"/>
+        <v>2.0649636347310762</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="8"/>
+        <v>1.8992673202388608</v>
+      </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>8</v>
       </c>
@@ -2304,8 +2438,27 @@
         <f t="shared" si="4"/>
         <v>38631.163466572019</v>
       </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>1109.7127222982217</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>1022.9086479362213</v>
+      </c>
+      <c r="V12">
+        <v>693.4</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>1.6003933116501612</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="8"/>
+        <v>1.4752071646037228</v>
+      </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>9</v>
       </c>
@@ -2357,8 +2510,27 @@
         <f t="shared" si="4"/>
         <v>31505.11394975369</v>
       </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>691.38166894664846</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>734.82494485743462</v>
+      </c>
+      <c r="V13">
+        <v>475</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>1.4555403556771547</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="8"/>
+        <v>1.5469998839103887</v>
+      </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>10</v>
       </c>
@@ -2410,8 +2582,27 @@
         <f t="shared" si="4"/>
         <v>34956.415669250724</v>
       </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>853.89876880984946</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>855.3370557468379</v>
+      </c>
+      <c r="V14">
+        <v>649</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>1.3157145898456848</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="8"/>
+        <v>1.3179307484542957</v>
+      </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>11</v>
       </c>
@@ -2462,6 +2653,25 @@
       <c r="Q15">
         <f t="shared" si="4"/>
         <v>36864.697668122943</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>913.50070688861501</v>
+      </c>
+      <c r="V15">
+        <v>1000</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="8"/>
+        <v>0.91350070688861507</v>
       </c>
     </row>
   </sheetData>
@@ -2472,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J10"/>
+  <dimension ref="B4:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2693,7 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2511,194 +2721,359 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>19091.599999999999</v>
+        <v>4564.2299999999996</v>
       </c>
       <c r="D5">
-        <v>3229.89</v>
+        <v>4155.3</v>
       </c>
       <c r="E5">
-        <v>7351.51</v>
+        <v>356.66500000000002</v>
       </c>
       <c r="F5">
-        <v>0.81850100000000003</v>
+        <v>1.7427999999999999</v>
       </c>
       <c r="G5">
-        <v>5.6313300000000002</v>
+        <v>1.9429099999999999</v>
       </c>
       <c r="H5">
-        <v>0.730993</v>
+        <v>2.0097499999999999</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:J10" si="0">G5/1.1775</f>
-        <v>4.7824458598726114</v>
+        <f>G5/1.1775</f>
+        <v>1.6500297239915074</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0.62080084925690027</v>
+        <f>H5/1.1775</f>
+        <v>1.7067940552016985</v>
+      </c>
+      <c r="K5">
+        <v>5.0249100000000002</v>
+      </c>
+      <c r="L5">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="M5">
+        <f>E5/K5</f>
+        <v>70.979380725226918</v>
+      </c>
+      <c r="N5">
+        <f>M5*SQRT((I5/E5)^2+(L5/K5)^2)</f>
+        <v>0.33385079452222921</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>6257.66</v>
+        <v>8227.44</v>
       </c>
       <c r="D6">
-        <v>2251.42</v>
+        <v>3455.68</v>
       </c>
       <c r="E6">
-        <v>3053.85</v>
+        <v>1184.01</v>
       </c>
       <c r="F6">
-        <v>1.17269</v>
+        <v>1.0016099999999999</v>
       </c>
       <c r="G6">
-        <v>3.4003700000000001</v>
+        <v>2.4234300000000002</v>
       </c>
       <c r="H6">
-        <v>1.22176</v>
+        <v>1.1081300000000001</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>2.8877876857749469</v>
+        <f>G6/1.1775</f>
+        <v>2.0581146496815288</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1.037588110403397</v>
+        <f>H6/1.1775</f>
+        <v>0.94108704883227179</v>
+      </c>
+      <c r="K6">
+        <v>5.0249100000000002</v>
+      </c>
+      <c r="L6">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="M6">
+        <f>E6/K6</f>
+        <v>235.6281008018054</v>
+      </c>
+      <c r="N6">
+        <f>M6*SQRT((I6/E6)^2+(L6/K6)^2)</f>
+        <v>0.45580203352935861</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>4554.8100000000004</v>
+        <v>6142.21</v>
       </c>
       <c r="D7">
-        <v>2047.74</v>
+        <v>2661.42</v>
       </c>
       <c r="E7">
-        <v>2922.5</v>
+        <v>1755.44</v>
       </c>
       <c r="F7">
-        <v>1.52372</v>
+        <v>1.20123</v>
       </c>
       <c r="G7">
-        <v>3.5</v>
+        <v>2.8330799999999998</v>
       </c>
       <c r="H7">
-        <v>1.6348800000000001</v>
+        <v>1.30704</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>2.9723991507431</v>
+        <f>G7/1.1775</f>
+        <v>2.4060127388535029</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1.3884331210191083</v>
+        <f>H7/1.1775</f>
+        <v>1.1100127388535033</v>
+      </c>
+      <c r="K7">
+        <v>5.0249100000000002</v>
+      </c>
+      <c r="L7">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="M7">
+        <f>E7/K7</f>
+        <v>349.34755050339209</v>
+      </c>
+      <c r="N7">
+        <f>M7*SQRT((I7/E7)^2+(L7/K7)^2)</f>
+        <v>0.56319416185269555</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6142.21</v>
+        <v>4554.8100000000004</v>
       </c>
       <c r="D8">
-        <v>2661.42</v>
+        <v>2047.74</v>
       </c>
       <c r="E8">
-        <v>1755.44</v>
+        <v>2922.5</v>
       </c>
       <c r="F8">
-        <v>1.20123</v>
+        <v>1.52372</v>
       </c>
       <c r="G8">
-        <v>2.8330799999999998</v>
+        <v>3.5</v>
       </c>
       <c r="H8">
-        <v>1.30704</v>
+        <v>1.6348800000000001</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>2.4060127388535029</v>
+        <f>G8/1.1775</f>
+        <v>2.9723991507431</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1.1100127388535033</v>
+        <f>H8/1.1775</f>
+        <v>1.3884331210191083</v>
+      </c>
+      <c r="K8">
+        <v>5.0249100000000002</v>
+      </c>
+      <c r="L8">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="M8">
+        <f>E8/K8</f>
+        <v>581.60245656141103</v>
+      </c>
+      <c r="N8">
+        <f>M8*SQRT((I8/E8)^2+(L8/K8)^2)</f>
+        <v>0.77045374081783613</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>8227.44</v>
+        <v>6257.66</v>
       </c>
       <c r="D9">
-        <v>3455.68</v>
+        <v>2251.42</v>
       </c>
       <c r="E9">
-        <v>1184.01</v>
+        <v>3053.85</v>
       </c>
       <c r="F9">
-        <v>1.0016099999999999</v>
+        <v>1.17269</v>
       </c>
       <c r="G9">
-        <v>2.4234300000000002</v>
+        <v>3.4003700000000001</v>
       </c>
       <c r="H9">
-        <v>1.1081300000000001</v>
+        <v>1.22176</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>2.0581146496815288</v>
+        <f>G9/1.1775</f>
+        <v>2.8877876857749469</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.94108704883227179</v>
+        <f>H9/1.1775</f>
+        <v>1.037588110403397</v>
+      </c>
+      <c r="K9">
+        <v>5.0249100000000002</v>
+      </c>
+      <c r="L9">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="M9">
+        <f>E9/K9</f>
+        <v>607.74222821901287</v>
+      </c>
+      <c r="N9">
+        <f>M9*SQRT((I9/E9)^2+(L9/K9)^2)</f>
+        <v>0.77224259266754691</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4564.2299999999996</v>
+        <v>1676.55</v>
       </c>
       <c r="D10">
-        <v>4155.3</v>
+        <v>287.02</v>
       </c>
       <c r="E10">
-        <v>356.66500000000002</v>
+        <v>3317.68</v>
       </c>
       <c r="F10">
-        <v>1.7427999999999999</v>
+        <v>0.75101799999999996</v>
       </c>
       <c r="G10">
-        <v>1.9429099999999999</v>
+        <v>4.4787699999999999</v>
       </c>
       <c r="H10">
-        <v>2.0097499999999999</v>
+        <v>0.84828300000000001</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1.6500297239915074</v>
+        <f>G10/1.1775</f>
+        <v>3.8036263269639066</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1.7067940552016985</v>
+        <f>H10/1.1775</f>
+        <v>0.72041019108280258</v>
+      </c>
+      <c r="K10">
+        <v>5.0249100000000002</v>
+      </c>
+      <c r="L10">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="M10">
+        <f>E10/K10</f>
+        <v>660.24665118380221</v>
+      </c>
+      <c r="N10">
+        <f>M10*SQRT((I10/E10)^2+(L10/K10)^2)</f>
+        <v>0.94182058020762072</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>19091.599999999999</v>
+      </c>
+      <c r="D11">
+        <v>3229.89</v>
+      </c>
+      <c r="E11">
+        <v>7351.51</v>
+      </c>
+      <c r="F11">
+        <v>0.81850100000000003</v>
+      </c>
+      <c r="G11">
+        <v>5.6313300000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.730993</v>
+      </c>
+      <c r="I11">
+        <f>G11/1.1775</f>
+        <v>4.7824458598726114</v>
+      </c>
+      <c r="J11">
+        <f>H11/1.1775</f>
+        <v>0.62080084925690027</v>
+      </c>
+      <c r="K11">
+        <v>5.0249100000000002</v>
+      </c>
+      <c r="L11">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="M11">
+        <f>E11/K11</f>
+        <v>1463.0132678993255</v>
+      </c>
+      <c r="N11">
+        <f>M11*SQRT((I11/E11)^2+(L11/K11)^2)</f>
+        <v>1.5645449459317324</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C5:N11">
+    <sortCondition ref="E5:E11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>